--- a/docs/deliverables_apr3/Spark_SP20_TaskList.xlsx
+++ b/docs/deliverables_apr3/Spark_SP20_TaskList.xlsx
@@ -1,44 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samarth/Workspace/bdad-project/docs/deliverables_apr3/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130BF9F-82D5-364E-9743-863A47DB457B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$G$51</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>Big Data Analytics Application Project Task List</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Project Name </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;Enter you project name here&gt;</t>
-  </si>
-  <si>
     <t>Team Members</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3) </t>
   </si>
   <si>
@@ -67,9 +71,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Plan where data will reside</t>
@@ -77,10 +78,11 @@
   <si>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>•How much total data will be stored at any given time?</t>
     </r>
@@ -88,10 +90,11 @@
   <si>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>•Will the data fit in your Quickstart VM's HDFS, or do you need to use Dumbo? or the Cloud?</t>
     </r>
@@ -102,10 +105,11 @@
   <si>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>•What action will your application take in response to the insight discovered? Will it be automatic or does it require user action?</t>
     </r>
@@ -113,21 +117,23 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Data Cleaning and Profiling Stage  (</t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Each data source is owned by and processed by one team member - steps 4, 5, 6)</t>
     </r>
@@ -141,10 +147,11 @@
   <si>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>•In this step, you'll read the data from the source and write it or copy it into HDFS</t>
     </r>
@@ -158,10 +165,11 @@
   <si>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>•This is to characterize the data and the range of values in each column   @@ -169,10 +177,11 @@
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>•You might notice unexpected values in a column - you may decide to normalize the values (e.g. Street vs. St. vs. street) in the ETL stage   @@ -208,29 +217,32 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Data Source </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>n</t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="14"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Processing</t>
     </r>
@@ -238,10 +250,11 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Write code to ingest data source n (if just a copy operation, please provide the command(s))</t>
     </r>
@@ -249,20 +262,22 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Write code to clean/format (ETL) data source </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <i val="1"/>
+        <b/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>n</t>
     </r>
@@ -303,30 +318,33 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Analyze </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <i val="1"/>
-        <u val="single"/>
+        <b/>
+        <i/>
+        <u/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>results</t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> produced by analytic</t>
     </r>
@@ -337,6 +355,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>• Test your hypothesis - does it hold?   @@ -354,15 +373,17 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">• </t>
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Iterate to improve results, and/or to better understand results   @@ -373,15 +394,17 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">• </t>
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Do the results make sense? Are the results actionable?</t>
     </r>
@@ -411,102 +434,148 @@
     <t>-</t>
   </si>
   <si>
-    <t>Nov. 27, 2019</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ©  2016-2020 Suzanne McIntosh, Cloudera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) Samarth Tambad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2) Rohit Nandwani</t>
+  </si>
+  <si>
+    <t>May. 3, 2020</t>
+  </si>
+  <si>
+    <t>Apr 3</t>
+  </si>
+  <si>
+    <t>Mar 25</t>
+  </si>
+  <si>
+    <t>Samarth</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Apr 10</t>
+  </si>
+  <si>
+    <t>20 April</t>
+  </si>
+  <si>
+    <t>13 April</t>
+  </si>
+  <si>
+    <t>6 April</t>
+  </si>
+  <si>
+    <t>14 April</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Measuring Community Friendliness of Programming Languages</t>
+  </si>
+  <si>
+    <t>16 April</t>
+  </si>
+  <si>
+    <t>17 April</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <u val="single"/>
+      <b/>
+      <i/>
+      <u/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="17"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -1079,214 +1148,220 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,36 +1371,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffe7fffa"/>
-      <rgbColor rgb="ffd4fff0"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffe2fbff"/>
-      <rgbColor rgb="fffff4d1"/>
-      <rgbColor rgb="ffdaeef3"/>
-      <rgbColor rgb="fffde9d9"/>
-      <rgbColor rgb="ffc6fff6"/>
-      <rgbColor rgb="fff7edfe"/>
-      <rgbColor rgb="ffe2cfff"/>
-      <rgbColor rgb="fffed3ff"/>
-      <rgbColor rgb="ffff9fff"/>
-      <rgbColor rgb="ff525252"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFE7FFFA"/>
+      <rgbColor rgb="FFD4FFF0"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFE2FBFF"/>
+      <rgbColor rgb="FFFFF4D1"/>
+      <rgbColor rgb="FFDAEEF3"/>
+      <rgbColor rgb="FFFDE9D9"/>
+      <rgbColor rgb="FFC6FFF6"/>
+      <rgbColor rgb="FFF7EDFE"/>
+      <rgbColor rgb="FFE2CFFF"/>
+      <rgbColor rgb="FFFED3FF"/>
+      <rgbColor rgb="FFFF9FFF"/>
+      <rgbColor rgb="FF525252"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1451,7 +1575,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1460,7 +1584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1469,7 +1593,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1543,7 +1667,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1551,7 +1675,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1570,7 +1694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1626,7 +1750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1652,7 +1776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1678,7 +1802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1704,7 +1828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1730,7 +1854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1756,7 +1880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1782,7 +1906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1808,7 +1932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1821,9 +1945,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1838,7 +1968,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1846,7 +1976,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1865,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1891,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1917,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1943,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1995,7 +2125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2021,7 +2151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2047,7 +2177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2073,7 +2203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2099,7 +2229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2112,9 +2242,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2128,7 +2264,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2147,7 +2283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2177,7 +2313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2203,7 +2339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2229,7 +2365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2255,7 +2391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2281,7 +2417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2307,7 +2443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2333,7 +2469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2359,7 +2495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2385,7 +2521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2398,840 +2534,852 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5859" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5859" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" style="1" customWidth="1"/>
     <col min="8" max="256" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="74.2" customHeight="1">
+    <row r="1" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" ht="45" customHeight="1">
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" t="s" s="9">
+      <c r="C2" s="43"/>
+      <c r="D2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" ht="33" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s" s="12">
+      <c r="C3" s="45"/>
+      <c r="D3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" t="s" s="14">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" t="s" s="18">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" t="s" s="22">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" ht="32.15" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" ht="28" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s" s="29">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="29">
+      <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s" s="29">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s" s="29">
+    </row>
+    <row r="8" spans="1:7" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s" s="29">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s" s="29">
+      <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="28.2" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s" s="30">
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="67">
+        <v>2</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="43.9" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="31">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="32">
+      <c r="D11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s" s="33">
+    </row>
+    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s" s="34">
+    </row>
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="31">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s" s="32">
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s" s="33">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s" s="36">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s" s="37">
+    </row>
+    <row r="14" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="45" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" t="s" s="42">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" ht="45" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="31">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s" s="32">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" spans="1:7" ht="62.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="13">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s" s="33">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s" s="43">
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="39.1" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" ht="68.05" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s" s="44">
+    <row r="18" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="13">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s" s="44">
+      <c r="D18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="152.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="13">
+        <v>6</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" ht="62.65" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="45">
+      <c r="D19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C17" t="s" s="46">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s" s="43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" ht="49.55" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="45">
+      <c r="C22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="13">
         <v>5</v>
       </c>
-      <c r="C18" t="s" s="46">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" ht="152.4" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="45">
+      <c r="C23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="13">
         <v>6</v>
       </c>
-      <c r="C19" t="s" s="46">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s" s="43">
+      <c r="C24" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" ht="18.5" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" t="s" s="44">
+      <c r="D24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" ht="69.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="45">
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+    </row>
+    <row r="27" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="13">
         <v>4</v>
       </c>
-      <c r="C22" t="s" s="46">
+      <c r="C27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" ht="48.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="45">
+      <c r="D27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="13">
         <v>5</v>
       </c>
-      <c r="C23" t="s" s="46">
+      <c r="C28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" ht="45" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="45">
+      <c r="D28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="13">
         <v>6</v>
       </c>
-      <c r="C24" t="s" s="46">
+      <c r="C29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" ht="18.5" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" t="s" s="44">
+      <c r="D29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" ht="64.05" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="45">
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+    </row>
+    <row r="32" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C27" t="s" s="46">
+      <c r="C32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D27" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" ht="48.55" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="45">
+      <c r="D32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C28" t="s" s="46">
+      <c r="C33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D28" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" ht="34" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="45">
+      <c r="D33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="13">
         <v>6</v>
       </c>
-      <c r="C29" t="s" s="46">
+      <c r="C34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D29" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" ht="18.5" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" ht="26" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" t="s" s="44">
+      <c r="D34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" ht="71.05" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="45">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s" s="46">
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
+    </row>
+    <row r="37" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" ht="53.85" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="45">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s" s="46">
+      <c r="C37" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" ht="42.65" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="45">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s" s="46">
+      <c r="D37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" ht="39.65" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" ht="26" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" t="s" s="48">
+      <c r="D38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" ht="40.45" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" t="s" s="49">
+      <c r="D39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="37.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s" s="50">
+      <c r="C40" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" ht="37.45" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
-      <c r="C38" t="s" s="50">
+      <c r="D40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D38" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" ht="44.4" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" t="s" s="50">
+      <c r="D41" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D39" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" ht="37.85" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" t="s" s="51">
+      <c r="D42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="92.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s" s="52">
+      <c r="D43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G40" s="47"/>
-    </row>
-    <row r="41" ht="44.55" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="8"/>
-      <c r="C41" t="s" s="52">
+    </row>
+    <row r="44" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D41" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" ht="39.75" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="8"/>
-      <c r="C42" t="s" s="52">
+      <c r="D44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D42" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E42" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" ht="92.75" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
-      <c r="C43" t="s" s="52">
+    </row>
+    <row r="45" spans="1:7" ht="65.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D43" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s" s="53">
+      <c r="C45" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" ht="69.9" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="8"/>
-      <c r="C44" t="s" s="52">
+      <c r="D45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D44" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s" s="43">
+    </row>
+    <row r="46" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" ht="65.65" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" t="s" s="54">
+      <c r="D46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s" s="55">
+      <c r="D47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D45" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s" s="43">
+      <c r="C49" s="43"/>
+      <c r="D49" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" ht="35.2" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" t="s" s="55">
+      <c r="F49" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="D46" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G46" s="35"/>
-    </row>
-    <row r="47" ht="35.2" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" t="s" s="55">
-        <v>58</v>
-      </c>
-      <c r="D47" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="E47" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s" s="34">
-        <v>16</v>
-      </c>
-      <c r="G47" s="35"/>
-    </row>
-    <row r="48" ht="36" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" ht="63.7" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" t="s" s="57">
-        <v>59</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" t="s" s="58">
-        <v>15</v>
-      </c>
-      <c r="E49" t="s" s="58">
-        <v>60</v>
-      </c>
-      <c r="F49" t="s" s="58">
-        <v>61</v>
-      </c>
-      <c r="G49" s="59"/>
-    </row>
-    <row r="50" ht="16.6" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
-    </row>
-    <row r="51" ht="16.6" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" t="s" s="67">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C5"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup scale="48" fitToHeight="2" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
